--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_268.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_268.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,408 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09054054054054055</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min/5', 'Bb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(23.563446, 27.290249)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.334625, 17.711587)]</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:36.640000', '0:00:38.520000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:00:02.612267', '0:00:20.410362')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_283</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1547619047619048</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['C', 'D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[['C', 'D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[('0:01:15.705034', '0:01:20.407074')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:05.382154', '0:01:17.688730')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.88, 32.5)]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.38, 5.3)]</t>
+          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:30.240000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:02.580000', '0:00:05.020000'), ('0:00:00.220000', '0:00:03.440000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -888,317 +898,266 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.46, 19.06)]</t>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(94.06, 105.58)]</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(60.04, 65.24)]</t>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3888888888888888</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:08.150589', '0:01:20.236575')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7483552631578947</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:03:16.576000', '0:04:06.376000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.3, 3.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(27.789047, 31.109501)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
